--- a/7_figure/densite.xlsx
+++ b/7_figure/densite.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>MS60</t>
   </si>
   <si>
-    <t>surface</t>
-  </si>
-  <si>
     <t>cm²</t>
   </si>
   <si>
@@ -50,10 +47,22 @@
     <t>Faro</t>
   </si>
   <si>
-    <t>Photo int</t>
-  </si>
-  <si>
     <t>Photo ext</t>
+  </si>
+  <si>
+    <t>Photo int h</t>
+  </si>
+  <si>
+    <t>Photo int b</t>
+  </si>
+  <si>
+    <t>surface ext</t>
+  </si>
+  <si>
+    <t>surface int h</t>
+  </si>
+  <si>
+    <t>surface int b</t>
   </si>
 </sst>
 </file>
@@ -61,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -95,7 +104,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:C11"/>
+  <dimension ref="A4:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,63 +398,120 @@
   <sheetData>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>768.39</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <f>0.018397*10000</f>
+        <v>183.97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <f>0.022596*10000</f>
+        <v>225.96</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>131</v>
-      </c>
-      <c r="C7" s="2">
-        <f>B7/$B$4</f>
-        <v>0.17048634157133746</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>8404</v>
-      </c>
-      <c r="C8" s="2">
-        <f>B8/$B$4</f>
-        <v>10.937154309660459</v>
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>131</v>
+      </c>
+      <c r="C9" s="2">
+        <f>B9/$B$4</f>
+        <v>0.17048634157133746</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8404</v>
+      </c>
+      <c r="C10" s="2">
+        <f>B10/$B$4</f>
+        <v>10.937154309660459</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2903</v>
+      </c>
+      <c r="C11" s="2">
+        <f>B11/$B$4</f>
+        <v>3.7780293861190279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>388</v>
+      </c>
+      <c r="C12" s="2">
+        <f>B12/$B$5</f>
+        <v>2.1090395173126053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>9</v>
+      </c>
+      <c r="B13">
+        <v>237</v>
+      </c>
+      <c r="C13" s="2">
+        <f>B13/$B$6</f>
+        <v>1.0488582049920339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>5782</v>
+      </c>
+      <c r="C14" s="2">
+        <f>B14/$B$4</f>
+        <v>7.5248246333242239</v>
       </c>
     </row>
   </sheetData>

--- a/7_figure/densite.xlsx
+++ b/7_figure/densite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>MS60</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>surface int b</t>
+  </si>
+  <si>
+    <t>Bebop</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:C14"/>
+  <dimension ref="A4:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,6 +517,18 @@
         <v>7.5248246333242239</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2">
+        <f>B15/$B$4</f>
+        <v>9.6305261650984533E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
